--- a/demo/导表/电气入库/7站用变压器.xlsx
+++ b/demo/导表/电气入库/7站用变压器.xlsx
@@ -19,25 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
     <t>SCB11-400/37kV</t>
-  </si>
-  <si>
-    <t>容量</t>
-  </si>
-  <si>
-    <t>额定电压</t>
-  </si>
-  <si>
-    <t>额定电压分接范围</t>
   </si>
   <si>
     <r>
@@ -83,23 +71,41 @@
     </r>
   </si>
   <si>
-    <t>阻抗电压</t>
-  </si>
-  <si>
     <t>Ud=6%</t>
   </si>
   <si>
-    <t>联接组别</t>
-  </si>
-  <si>
     <t>Dyn11</t>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RatedVoltage</t>
+  </si>
+  <si>
+    <t>RatedVoltageTapRange</t>
+  </si>
+  <si>
+    <t>ImpedanceVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinGroups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +133,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Fira Code Medium"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,9 +160,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -499,59 +514,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>400</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>400</v>
-      </c>
-      <c r="D2">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
